--- a/hello world.xlsx
+++ b/hello world.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>Hola mundo !</t>
+    <t>X</t>
   </si>
   <si>
-    <t>DNI</t>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,17 +368,191 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>77501319</v>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
